--- a/fuentes/visuales/grado10/guion02/SolicitudGrafica_CN_10_02_CO_REC120.xlsx
+++ b/fuentes/visuales/grado10/guion02/SolicitudGrafica_CN_10_02_CO_REC120.xlsx
@@ -2323,9 +2323,9 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:P108"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="J1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="140" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="140" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -2537,13 +2537,13 @@
       <c r="E10" s="75" t="s">
         <v>148</v>
       </c>
-      <c r="F10" s="14" t="e">
-        <f>IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),CONCATENATE(#REF!,"_",$A10,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I10="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G10" s="14" t="e">
+      <c r="F10" s="14" t="str">
+        <f>IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),CONCATENATE($C$7,"_",$A10,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I10="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <v>CN_10_02_CO_F1.png</v>
+      </c>
+      <c r="G10" s="14" t="str">
         <f>IF(F10&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v>#REF!</v>
+        <v>110 x 110 px</v>
       </c>
       <c r="H10" s="14" t="str">
         <f>IF(AND(I10&lt;&gt;"",I10&lt;&gt;0),IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),CONCATENATE(#REF!,"_",$A10,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
@@ -2575,13 +2575,13 @@
       <c r="E11" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="F11" s="14" t="e">
-        <f>IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE(#REF!,"_",$A11,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I11="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G11" s="14" t="e">
+      <c r="F11" s="14" t="str">
+        <f t="shared" ref="F11:F12" si="1">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE($C$7,"_",$A11,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I11="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <v>CN_10_02_CO_F2.png</v>
+      </c>
+      <c r="G11" s="14" t="str">
         <f>IF(F11&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v>#REF!</v>
+        <v>110 x 110 px</v>
       </c>
       <c r="H11" s="14" t="str">
         <f>IF(AND(I11&lt;&gt;"",I11&lt;&gt;0),IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE(#REF!,"_",$A11,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
@@ -2613,13 +2613,13 @@
       <c r="E12" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="F12" s="14" t="e">
-        <f>IF(OR(B12&lt;&gt;"",J12&lt;&gt;""),CONCATENATE(#REF!,"_",$A12,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I12="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G12" s="14" t="e">
+      <c r="F12" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>CN_10_02_CO_F3.png</v>
+      </c>
+      <c r="G12" s="14" t="str">
         <f>IF(F12&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v>#REF!</v>
+        <v>110 x 110 px</v>
       </c>
       <c r="H12" s="14" t="str">
         <f>IF(AND(I12&lt;&gt;"",I12&lt;&gt;0),IF(OR(B12&lt;&gt;"",J12&lt;&gt;""),CONCATENATE(#REF!,"_",$A12,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
